--- a/prep_data/2025_kickoff-returns_offense.xlsx
+++ b/prep_data/2025_kickoff-returns_offense.xlsx
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>1878</v>
+        <v>1954</v>
       </c>
       <c r="E2" t="n">
-        <v>29.81</v>
+        <v>30.06</v>
       </c>
       <c r="F2" t="n">
         <v>99</v>
@@ -500,63 +500,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>144.5</v>
+        <v>130.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>1576</v>
+        <v>1686</v>
       </c>
       <c r="E3" t="n">
-        <v>28.14</v>
+        <v>28.1</v>
       </c>
       <c r="F3" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>1068</v>
+        <v>1736</v>
       </c>
       <c r="E4" t="n">
-        <v>28.11</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>82.2</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>1037</v>
+        <v>1257</v>
       </c>
       <c r="E5" t="n">
-        <v>28.03</v>
+        <v>27.93</v>
       </c>
       <c r="F5" t="n">
         <v>98</v>
@@ -584,54 +584,54 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>79.8</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>1397</v>
+        <v>1199</v>
       </c>
       <c r="E6" t="n">
-        <v>27.94</v>
+        <v>27.88</v>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>107.5</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="E7" t="n">
-        <v>27.67</v>
+        <v>27.29</v>
       </c>
       <c r="F7" t="n">
         <v>54</v>
@@ -640,203 +640,203 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>108.5</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>1480</v>
+        <v>1773</v>
       </c>
       <c r="E8" t="n">
-        <v>27.41</v>
+        <v>27.28</v>
       </c>
       <c r="F8" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>113.8</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>1538</v>
+        <v>1628</v>
       </c>
       <c r="E9" t="n">
-        <v>26.98</v>
+        <v>27.13</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>118.3</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n">
-        <v>1453</v>
+        <v>1765</v>
       </c>
       <c r="E10" t="n">
-        <v>26.91</v>
+        <v>26.74</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>111.8</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>1137</v>
+        <v>1600</v>
       </c>
       <c r="E11" t="n">
-        <v>26.44</v>
+        <v>26.67</v>
       </c>
       <c r="F11" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>87.5</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>1426</v>
+        <v>1584</v>
       </c>
       <c r="E12" t="n">
-        <v>26.41</v>
+        <v>26.4</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>1495</v>
+        <v>1154</v>
       </c>
       <c r="E13" t="n">
         <v>26.23</v>
       </c>
       <c r="F13" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>115</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
-        <v>1404</v>
+        <v>1651</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>26.21</v>
       </c>
       <c r="F14" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="15">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
-        <v>1323</v>
+        <v>1615</v>
       </c>
       <c r="E15" t="n">
-        <v>25.94</v>
+        <v>26.05</v>
       </c>
       <c r="F15" t="n">
         <v>54</v>
@@ -864,35 +864,35 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>101.8</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>1398</v>
+        <v>1688</v>
       </c>
       <c r="E16" t="n">
-        <v>25.89</v>
+        <v>25.97</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="17">
@@ -902,16 +902,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>1604</v>
+        <v>1685</v>
       </c>
       <c r="E17" t="n">
-        <v>25.87</v>
+        <v>25.92</v>
       </c>
       <c r="F17" t="n">
         <v>43</v>
@@ -920,222 +920,222 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>123.4</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D18" t="n">
-        <v>1326</v>
+        <v>1616</v>
       </c>
       <c r="E18" t="n">
-        <v>25.5</v>
+        <v>25.65</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>102</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
-        <v>1704</v>
+        <v>1323</v>
       </c>
       <c r="E19" t="n">
-        <v>25.43</v>
+        <v>25.44</v>
       </c>
       <c r="F19" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>131.1</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>1065</v>
+        <v>1931</v>
       </c>
       <c r="E20" t="n">
-        <v>25.36</v>
+        <v>25.41</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>81.90000000000001</v>
+        <v>128.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>1314</v>
+        <v>1266</v>
       </c>
       <c r="E21" t="n">
-        <v>25.27</v>
+        <v>25.32</v>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>101.1</v>
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D22" t="n">
-        <v>1137</v>
+        <v>1771</v>
       </c>
       <c r="E22" t="n">
-        <v>25.27</v>
+        <v>25.3</v>
       </c>
       <c r="F22" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>87.5</v>
+        <v>118.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D23" t="n">
-        <v>958</v>
+        <v>1767</v>
       </c>
       <c r="E23" t="n">
-        <v>25.21</v>
+        <v>25.24</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>73.7</v>
+        <v>117.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="E24" t="n">
-        <v>25.05</v>
+        <v>25.19</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>111.8</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>976</v>
+        <v>1430</v>
       </c>
       <c r="E25" t="n">
-        <v>25.03</v>
+        <v>25.09</v>
       </c>
       <c r="F25" t="n">
         <v>46</v>
@@ -1144,63 +1144,63 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>75.09999999999999</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
-        <v>1495</v>
+        <v>1265</v>
       </c>
       <c r="E26" t="n">
-        <v>24.92</v>
+        <v>24.8</v>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>115</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>1152</v>
+        <v>1484</v>
       </c>
       <c r="E27" t="n">
-        <v>24.51</v>
+        <v>24.73</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>88.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>1143</v>
+        <v>1352</v>
       </c>
       <c r="E28" t="n">
-        <v>24.32</v>
+        <v>24.58</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>87.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1238,16 +1238,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" t="n">
-        <v>1088</v>
+        <v>1186</v>
       </c>
       <c r="E29" t="n">
-        <v>24.18</v>
+        <v>24.2</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>83.7</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1266,16 +1266,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D30" t="n">
-        <v>1234</v>
+        <v>1387</v>
       </c>
       <c r="E30" t="n">
-        <v>23.73</v>
+        <v>23.91</v>
       </c>
       <c r="F30" t="n">
         <v>37</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>94.90000000000001</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="31">
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>1210</v>
+        <v>1307</v>
       </c>
       <c r="E31" t="n">
-        <v>23.73</v>
+        <v>23.76</v>
       </c>
       <c r="F31" t="n">
         <v>41</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D32" t="n">
-        <v>1296</v>
+        <v>1489</v>
       </c>
       <c r="E32" t="n">
-        <v>23.56</v>
+        <v>23.63</v>
       </c>
       <c r="F32" t="n">
         <v>34</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="33">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
         <v>60</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
